--- a/_RESULTS/Error_budget/error_budget_area3a.xlsx
+++ b/_RESULTS/Error_budget/error_budget_area3a.xlsx
@@ -414,7 +414,7 @@
         <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>0.3142285693673513</v>
+        <v>0.3143777667121458</v>
       </c>
       <c r="E2" t="n">
         <v>2.054841055749284</v>
@@ -438,7 +438,7 @@
         <v>2</v>
       </c>
       <c r="D3" t="n">
-        <v>0.4366363032623181</v>
+        <v>0.4366337469568408</v>
       </c>
       <c r="E3" t="n">
         <v>1.984754353619656</v>
